--- a/models/results.xlsx
+++ b/models/results.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Logan\Documents\Logan\ML-AI\LunarLander\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{2788F269-4E72-4E23-9EAF-52F5E282DB9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{534A845B-E8F9-498A-A9D2-02DD43D4942D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24780" yWindow="1212" windowWidth="19824" windowHeight="10152"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="20">
   <si>
     <t>Best Epoch</t>
   </si>
@@ -78,11 +78,14 @@
   <si>
     <t>Adagrad</t>
   </si>
+  <si>
+    <t>AdamW</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -621,28 +624,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:P17" totalsRowShown="0">
-  <autoFilter ref="A1:P17"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P17">
-    <sortCondition descending="1" ref="B1:B17"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:P35" totalsRowShown="0">
+  <autoFilter ref="A1:P35" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P35">
+    <sortCondition ref="O1:O35"/>
   </sortState>
   <tableColumns count="16">
-    <tableColumn id="1" name="Best Epoch"/>
-    <tableColumn id="2" name=" Best Epoch Avg"/>
-    <tableColumn id="3" name=" Positive Epochs"/>
-    <tableColumn id="4" name=" Final Epoch Avg"/>
-    <tableColumn id="5" name=" Final Epoch StdDev"/>
-    <tableColumn id="6" name=" Layer 1"/>
-    <tableColumn id="7" name=" Layer 2"/>
-    <tableColumn id="8" name=" Gamma"/>
-    <tableColumn id="9" name=" Random Action Rate"/>
-    <tableColumn id="10" name=" RAR Decay"/>
-    <tableColumn id="11" name=" Memory Size"/>
-    <tableColumn id="12" name=" Minibatch Size"/>
-    <tableColumn id="13" name=" Replay Freq"/>
-    <tableColumn id="14" name=" Target Update"/>
-    <tableColumn id="15" name=" Optimizer"/>
-    <tableColumn id="16" name=" Learning Rate"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Best Epoch"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name=" Best Epoch Avg"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name=" Positive Epochs"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name=" Final Epoch Avg"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name=" Final Epoch StdDev"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name=" Layer 1"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name=" Layer 2"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name=" Gamma"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name=" Random Action Rate"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name=" RAR Decay"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name=" Memory Size"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name=" Minibatch Size"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name=" Replay Freq"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name=" Target Update"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name=" Optimizer"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name=" Learning Rate"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -944,12 +947,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1123,19 +1126,19 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>10.1</v>
       </c>
       <c r="E4">
-        <v>151.69999999999999</v>
+        <v>151.9</v>
       </c>
       <c r="F4">
         <v>256</v>
@@ -1144,81 +1147,81 @@
         <v>32</v>
       </c>
       <c r="H4">
-        <v>0.99980000000000002</v>
+        <v>0.99960000000000004</v>
       </c>
       <c r="I4">
-        <v>1.1000000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="J4">
-        <v>0.99999000000000005</v>
+        <v>0.99997999999999998</v>
       </c>
       <c r="K4">
-        <v>150000</v>
+        <v>300000</v>
       </c>
       <c r="L4">
-        <v>256</v>
+        <v>512</v>
       </c>
       <c r="M4">
         <v>20</v>
       </c>
       <c r="N4">
-        <v>150000</v>
+        <v>100000</v>
       </c>
       <c r="O4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P4">
-        <v>1.5E-3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C5">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5">
-        <v>-132</v>
+        <v>48.7</v>
       </c>
       <c r="E5">
-        <v>40.299999999999997</v>
+        <v>170</v>
       </c>
       <c r="F5">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="G5">
         <v>32</v>
       </c>
       <c r="H5">
-        <v>0.99919999999999998</v>
+        <v>0.99980000000000002</v>
       </c>
       <c r="I5">
-        <v>0.95</v>
+        <v>1.2</v>
       </c>
       <c r="J5">
-        <v>0.99997999999999998</v>
+        <v>0.99995999999999996</v>
       </c>
       <c r="K5">
-        <v>400000</v>
+        <v>150000</v>
       </c>
       <c r="L5">
         <v>256</v>
       </c>
       <c r="M5">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="N5">
-        <v>125000</v>
+        <v>120000</v>
       </c>
       <c r="O5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P5">
-        <v>5.0000000000000001E-4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
@@ -1276,49 +1279,49 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="C7">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D7">
-        <v>49.8</v>
+        <v>-121.4</v>
       </c>
       <c r="E7">
-        <v>145.69999999999999</v>
+        <v>39.9</v>
       </c>
       <c r="F7">
         <v>128</v>
       </c>
       <c r="G7">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="H7">
         <v>0.99980000000000002</v>
       </c>
       <c r="I7">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>0.99997000000000003</v>
+        <v>0.99997999999999998</v>
       </c>
       <c r="K7">
-        <v>200000</v>
+        <v>400000</v>
       </c>
       <c r="L7">
-        <v>512</v>
+        <v>1024</v>
       </c>
       <c r="M7">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N7">
-        <v>150000</v>
+        <v>100000</v>
       </c>
       <c r="O7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P7">
-        <v>2.0000000000000001E-4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
@@ -1326,37 +1329,37 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>-110.2</v>
+        <v>-116.1</v>
       </c>
       <c r="E8">
-        <v>57</v>
+        <v>30.9</v>
       </c>
       <c r="F8">
         <v>256</v>
       </c>
       <c r="G8">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="H8">
         <v>0.99950000000000006</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J8">
         <v>0.99997000000000003</v>
       </c>
       <c r="K8">
-        <v>300000</v>
+        <v>100000</v>
       </c>
       <c r="L8">
-        <v>1024</v>
+        <v>512</v>
       </c>
       <c r="M8">
         <v>40</v>
@@ -1365,27 +1368,27 @@
         <v>80000</v>
       </c>
       <c r="O8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P8">
-        <v>1.5E-3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="C9">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>-121.4</v>
+        <v>-133.6</v>
       </c>
       <c r="E9">
-        <v>39.9</v>
+        <v>37.4</v>
       </c>
       <c r="F9">
         <v>128</v>
@@ -1394,16 +1397,16 @@
         <v>16</v>
       </c>
       <c r="H9">
-        <v>0.99980000000000002</v>
+        <v>0.99919999999999998</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="J9">
-        <v>0.99997999999999998</v>
+        <v>0.99999000000000005</v>
       </c>
       <c r="K9">
-        <v>400000</v>
+        <v>100000</v>
       </c>
       <c r="L9">
         <v>1024</v>
@@ -1412,7 +1415,7 @@
         <v>30</v>
       </c>
       <c r="N9">
-        <v>100000</v>
+        <v>80000</v>
       </c>
       <c r="O9" t="s">
         <v>17</v>
@@ -1423,40 +1426,40 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>-116.1</v>
+        <v>-123.1</v>
       </c>
       <c r="E10">
-        <v>30.9</v>
+        <v>176.1</v>
       </c>
       <c r="F10">
-        <v>256</v>
+        <v>64</v>
       </c>
       <c r="G10">
         <v>16</v>
       </c>
       <c r="H10">
-        <v>0.99950000000000006</v>
+        <v>0.99995000000000001</v>
       </c>
       <c r="I10">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="J10">
-        <v>0.99997000000000003</v>
+        <v>0.99999000000000005</v>
       </c>
       <c r="K10">
-        <v>100000</v>
+        <v>500000</v>
       </c>
       <c r="L10">
-        <v>512</v>
+        <v>128</v>
       </c>
       <c r="M10">
         <v>40</v>
@@ -1473,52 +1476,52 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>-17</v>
+        <v>-92.3</v>
       </c>
       <c r="E11">
-        <v>163.30000000000001</v>
+        <v>39.6</v>
       </c>
       <c r="F11">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="G11">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="H11">
-        <v>0.99980000000000002</v>
+        <v>0.99990000000000001</v>
       </c>
       <c r="I11">
-        <v>0.95</v>
+        <v>1.2</v>
       </c>
       <c r="J11">
         <v>0.99999000000000005</v>
       </c>
       <c r="K11">
-        <v>200000</v>
+        <v>500000</v>
       </c>
       <c r="L11">
-        <v>1024</v>
+        <v>256</v>
       </c>
       <c r="M11">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="N11">
-        <v>125000</v>
+        <v>50000</v>
       </c>
       <c r="O11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P11">
-        <v>1.5E-3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
@@ -1526,49 +1529,49 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12">
-        <v>-133.6</v>
+        <v>-17</v>
       </c>
       <c r="E12">
-        <v>37.4</v>
+        <v>163.30000000000001</v>
       </c>
       <c r="F12">
         <v>128</v>
       </c>
       <c r="G12">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="H12">
-        <v>0.99919999999999998</v>
+        <v>0.99980000000000002</v>
       </c>
       <c r="I12">
-        <v>1.2</v>
+        <v>0.95</v>
       </c>
       <c r="J12">
         <v>0.99999000000000005</v>
       </c>
       <c r="K12">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="L12">
         <v>1024</v>
       </c>
       <c r="M12">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N12">
-        <v>80000</v>
+        <v>125000</v>
       </c>
       <c r="O12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P12">
-        <v>1</v>
+        <v>1.5E-3</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
@@ -1821,51 +1824,957 @@
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>120</v>
+      </c>
+      <c r="C18">
+        <v>9</v>
+      </c>
+      <c r="D18">
+        <v>9</v>
+      </c>
+      <c r="E18">
+        <v>151.69999999999999</v>
+      </c>
+      <c r="F18">
+        <v>256</v>
+      </c>
+      <c r="G18">
+        <v>32</v>
+      </c>
+      <c r="H18">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="I18">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J18">
+        <v>0.99999000000000005</v>
+      </c>
+      <c r="K18">
+        <v>150000</v>
+      </c>
+      <c r="L18">
+        <v>256</v>
+      </c>
+      <c r="M18">
+        <v>20</v>
+      </c>
+      <c r="N18">
+        <v>150000</v>
+      </c>
+      <c r="O18" t="s">
+        <v>16</v>
+      </c>
+      <c r="P18">
+        <v>1.5E-3</v>
+      </c>
+    </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>15</v>
+      </c>
+      <c r="B19">
+        <v>92</v>
+      </c>
+      <c r="C19">
+        <v>7</v>
+      </c>
+      <c r="D19">
+        <v>91.7</v>
+      </c>
+      <c r="E19">
+        <v>162.19999999999999</v>
+      </c>
       <c r="F19">
-        <f>CORREL($B2:$B17, F2:F17)</f>
-        <v>-7.3968561489833025E-3</v>
+        <v>128</v>
       </c>
       <c r="G19">
-        <f t="shared" ref="G19:P19" si="0">CORREL($B2:$B17, G2:G17)</f>
-        <v>0.13423515435004049</v>
+        <v>8</v>
       </c>
       <c r="H19">
+        <v>0.99939999999999996</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>0.99999000000000005</v>
+      </c>
+      <c r="K19">
+        <v>200000</v>
+      </c>
+      <c r="L19">
+        <v>256</v>
+      </c>
+      <c r="M19">
+        <v>50</v>
+      </c>
+      <c r="N19">
+        <v>120000</v>
+      </c>
+      <c r="O19" t="s">
+        <v>16</v>
+      </c>
+      <c r="P19">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>13</v>
+      </c>
+      <c r="B20">
+        <v>84</v>
+      </c>
+      <c r="C20">
+        <v>11</v>
+      </c>
+      <c r="D20">
+        <v>-132</v>
+      </c>
+      <c r="E20">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="F20">
+        <v>128</v>
+      </c>
+      <c r="G20">
+        <v>32</v>
+      </c>
+      <c r="H20">
+        <v>0.99919999999999998</v>
+      </c>
+      <c r="I20">
+        <v>0.95</v>
+      </c>
+      <c r="J20">
+        <v>0.99997999999999998</v>
+      </c>
+      <c r="K20">
+        <v>400000</v>
+      </c>
+      <c r="L20">
+        <v>256</v>
+      </c>
+      <c r="M20">
+        <v>10</v>
+      </c>
+      <c r="N20">
+        <v>125000</v>
+      </c>
+      <c r="O20" t="s">
+        <v>16</v>
+      </c>
+      <c r="P20">
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>12</v>
+      </c>
+      <c r="B21">
+        <v>72</v>
+      </c>
+      <c r="C21">
+        <v>7</v>
+      </c>
+      <c r="D21">
+        <v>41.7</v>
+      </c>
+      <c r="E21">
+        <v>163.19999999999999</v>
+      </c>
+      <c r="F21">
+        <v>32</v>
+      </c>
+      <c r="G21">
+        <v>32</v>
+      </c>
+      <c r="H21">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="I21">
+        <v>0.99</v>
+      </c>
+      <c r="J21">
+        <v>0.99997000000000003</v>
+      </c>
+      <c r="K21">
+        <v>150000</v>
+      </c>
+      <c r="L21">
+        <v>128</v>
+      </c>
+      <c r="M21">
+        <v>40</v>
+      </c>
+      <c r="N21">
+        <v>120000</v>
+      </c>
+      <c r="O21" t="s">
+        <v>16</v>
+      </c>
+      <c r="P21">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>9</v>
+      </c>
+      <c r="B22">
+        <v>64</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+      <c r="D22">
+        <v>-124.9</v>
+      </c>
+      <c r="E22">
+        <v>29.2</v>
+      </c>
+      <c r="F22">
+        <v>64</v>
+      </c>
+      <c r="G22">
+        <v>32</v>
+      </c>
+      <c r="H22">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="I22">
+        <v>1.05</v>
+      </c>
+      <c r="J22">
+        <v>0.99995999999999996</v>
+      </c>
+      <c r="K22">
+        <v>400000</v>
+      </c>
+      <c r="L22">
+        <v>512</v>
+      </c>
+      <c r="M22">
+        <v>40</v>
+      </c>
+      <c r="N22">
+        <v>80000</v>
+      </c>
+      <c r="O22" t="s">
+        <v>16</v>
+      </c>
+      <c r="P22">
+        <v>1.5E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>12</v>
+      </c>
+      <c r="B23">
+        <v>62</v>
+      </c>
+      <c r="C23">
+        <v>13</v>
+      </c>
+      <c r="D23">
+        <v>49.8</v>
+      </c>
+      <c r="E23">
+        <v>145.69999999999999</v>
+      </c>
+      <c r="F23">
+        <v>128</v>
+      </c>
+      <c r="G23">
+        <v>32</v>
+      </c>
+      <c r="H23">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="I23">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J23">
+        <v>0.99997000000000003</v>
+      </c>
+      <c r="K23">
+        <v>200000</v>
+      </c>
+      <c r="L23">
+        <v>512</v>
+      </c>
+      <c r="M23">
+        <v>20</v>
+      </c>
+      <c r="N23">
+        <v>150000</v>
+      </c>
+      <c r="O23" t="s">
+        <v>16</v>
+      </c>
+      <c r="P23">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>12</v>
+      </c>
+      <c r="B24">
+        <v>59</v>
+      </c>
+      <c r="C24">
+        <v>9</v>
+      </c>
+      <c r="D24">
+        <v>20</v>
+      </c>
+      <c r="E24">
+        <v>146.69999999999999</v>
+      </c>
+      <c r="F24">
+        <v>32</v>
+      </c>
+      <c r="G24">
+        <v>8</v>
+      </c>
+      <c r="H24">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="I24">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J24">
+        <v>0.99997999999999998</v>
+      </c>
+      <c r="K24">
+        <v>200000</v>
+      </c>
+      <c r="L24">
+        <v>128</v>
+      </c>
+      <c r="M24">
+        <v>50</v>
+      </c>
+      <c r="N24">
+        <v>100000</v>
+      </c>
+      <c r="O24" t="s">
+        <v>16</v>
+      </c>
+      <c r="P24">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>10</v>
+      </c>
+      <c r="B25">
+        <v>49</v>
+      </c>
+      <c r="C25">
+        <v>6</v>
+      </c>
+      <c r="D25">
+        <v>-104.8</v>
+      </c>
+      <c r="E25">
+        <v>91.8</v>
+      </c>
+      <c r="F25">
+        <v>128</v>
+      </c>
+      <c r="G25">
+        <v>8</v>
+      </c>
+      <c r="H25">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="I25">
+        <v>1.05</v>
+      </c>
+      <c r="J25">
+        <v>0.99997999999999998</v>
+      </c>
+      <c r="K25">
+        <v>150000</v>
+      </c>
+      <c r="L25">
+        <v>256</v>
+      </c>
+      <c r="M25">
+        <v>40</v>
+      </c>
+      <c r="N25">
+        <v>80000</v>
+      </c>
+      <c r="O25" t="s">
+        <v>16</v>
+      </c>
+      <c r="P25">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>8</v>
+      </c>
+      <c r="B26">
+        <v>44</v>
+      </c>
+      <c r="C26">
+        <v>4</v>
+      </c>
+      <c r="D26">
+        <v>-110.2</v>
+      </c>
+      <c r="E26">
+        <v>57</v>
+      </c>
+      <c r="F26">
+        <v>256</v>
+      </c>
+      <c r="G26">
+        <v>32</v>
+      </c>
+      <c r="H26">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>0.99997000000000003</v>
+      </c>
+      <c r="K26">
+        <v>300000</v>
+      </c>
+      <c r="L26">
+        <v>1024</v>
+      </c>
+      <c r="M26">
+        <v>40</v>
+      </c>
+      <c r="N26">
+        <v>80000</v>
+      </c>
+      <c r="O26" t="s">
+        <v>16</v>
+      </c>
+      <c r="P26">
+        <v>1.5E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>7</v>
+      </c>
+      <c r="B27">
+        <v>21</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>-129.30000000000001</v>
+      </c>
+      <c r="E27">
+        <v>30.2</v>
+      </c>
+      <c r="F27">
+        <v>128</v>
+      </c>
+      <c r="G27">
+        <v>8</v>
+      </c>
+      <c r="H27">
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>0.99995999999999996</v>
+      </c>
+      <c r="K27">
+        <v>500000</v>
+      </c>
+      <c r="L27">
+        <v>256</v>
+      </c>
+      <c r="M27">
+        <v>10</v>
+      </c>
+      <c r="N27">
+        <v>100000</v>
+      </c>
+      <c r="O27" t="s">
+        <v>16</v>
+      </c>
+      <c r="P27">
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>8</v>
+      </c>
+      <c r="B28">
+        <v>-27</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>-79.7</v>
+      </c>
+      <c r="E28">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="F28">
+        <v>256</v>
+      </c>
+      <c r="G28">
+        <v>32</v>
+      </c>
+      <c r="H28">
+        <v>0.99939999999999996</v>
+      </c>
+      <c r="I28">
+        <v>1.2</v>
+      </c>
+      <c r="J28">
+        <v>0.99999000000000005</v>
+      </c>
+      <c r="K28">
+        <v>300000</v>
+      </c>
+      <c r="L28">
+        <v>512</v>
+      </c>
+      <c r="M28">
+        <v>10</v>
+      </c>
+      <c r="N28">
+        <v>50000</v>
+      </c>
+      <c r="O28" t="s">
+        <v>16</v>
+      </c>
+      <c r="P28">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>5</v>
+      </c>
+      <c r="B29">
+        <v>-139</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>-183.4</v>
+      </c>
+      <c r="E29">
+        <v>82.7</v>
+      </c>
+      <c r="F29">
+        <v>32</v>
+      </c>
+      <c r="G29">
+        <v>8</v>
+      </c>
+      <c r="H29">
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>0.99997000000000003</v>
+      </c>
+      <c r="K29">
+        <v>500000</v>
+      </c>
+      <c r="L29">
+        <v>512</v>
+      </c>
+      <c r="M29">
+        <v>50</v>
+      </c>
+      <c r="N29">
+        <v>100000</v>
+      </c>
+      <c r="O29" t="s">
+        <v>16</v>
+      </c>
+      <c r="P29">
+        <v>2.5000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>14</v>
+      </c>
+      <c r="B30">
+        <v>119</v>
+      </c>
+      <c r="C30">
+        <v>6</v>
+      </c>
+      <c r="D30">
+        <v>108.4</v>
+      </c>
+      <c r="E30">
+        <v>154.6</v>
+      </c>
+      <c r="F30">
+        <v>64</v>
+      </c>
+      <c r="G30">
+        <v>8</v>
+      </c>
+      <c r="H30">
+        <v>0.99939999999999996</v>
+      </c>
+      <c r="I30">
+        <v>1.2</v>
+      </c>
+      <c r="J30">
+        <v>0.99999000000000005</v>
+      </c>
+      <c r="K30">
+        <v>200000</v>
+      </c>
+      <c r="L30">
+        <v>512</v>
+      </c>
+      <c r="M30">
+        <v>30</v>
+      </c>
+      <c r="N30">
+        <v>120000</v>
+      </c>
+      <c r="O30" t="s">
+        <v>19</v>
+      </c>
+      <c r="P30">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>13</v>
+      </c>
+      <c r="B31">
+        <v>67</v>
+      </c>
+      <c r="C31">
+        <v>7</v>
+      </c>
+      <c r="D31">
+        <v>-1.2</v>
+      </c>
+      <c r="E31">
+        <v>149.6</v>
+      </c>
+      <c r="F31">
+        <v>64</v>
+      </c>
+      <c r="G31">
+        <v>32</v>
+      </c>
+      <c r="H31">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>0.99997999999999998</v>
+      </c>
+      <c r="K31">
+        <v>500000</v>
+      </c>
+      <c r="L31">
+        <v>512</v>
+      </c>
+      <c r="M31">
+        <v>50</v>
+      </c>
+      <c r="N31">
+        <v>120000</v>
+      </c>
+      <c r="O31" t="s">
+        <v>19</v>
+      </c>
+      <c r="P31">
+        <v>1.5E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>10</v>
+      </c>
+      <c r="B32">
+        <v>66</v>
+      </c>
+      <c r="C32">
+        <v>6</v>
+      </c>
+      <c r="D32">
+        <v>-19</v>
+      </c>
+      <c r="E32">
+        <v>147.69999999999999</v>
+      </c>
+      <c r="F32">
+        <v>128</v>
+      </c>
+      <c r="G32">
+        <v>32</v>
+      </c>
+      <c r="H32">
+        <v>0.99995000000000001</v>
+      </c>
+      <c r="I32">
+        <v>1.2</v>
+      </c>
+      <c r="J32">
+        <v>0.99997000000000003</v>
+      </c>
+      <c r="K32">
+        <v>400000</v>
+      </c>
+      <c r="L32">
+        <v>512</v>
+      </c>
+      <c r="M32">
+        <v>30</v>
+      </c>
+      <c r="N32">
+        <v>100000</v>
+      </c>
+      <c r="O32" t="s">
+        <v>19</v>
+      </c>
+      <c r="P32">
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>9</v>
+      </c>
+      <c r="B33">
+        <v>65</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33">
+        <v>-92.1</v>
+      </c>
+      <c r="E33">
+        <v>74.900000000000006</v>
+      </c>
+      <c r="F33">
+        <v>256</v>
+      </c>
+      <c r="G33">
+        <v>16</v>
+      </c>
+      <c r="H33">
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="I33">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J33">
+        <v>0.99999000000000005</v>
+      </c>
+      <c r="K33">
+        <v>200000</v>
+      </c>
+      <c r="L33">
+        <v>256</v>
+      </c>
+      <c r="M33">
+        <v>40</v>
+      </c>
+      <c r="N33">
+        <v>50000</v>
+      </c>
+      <c r="O33" t="s">
+        <v>19</v>
+      </c>
+      <c r="P33">
+        <v>1.5E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>7</v>
+      </c>
+      <c r="B34">
+        <v>21</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34">
+        <v>-134.69999999999999</v>
+      </c>
+      <c r="E34">
+        <v>32</v>
+      </c>
+      <c r="F34">
+        <v>256</v>
+      </c>
+      <c r="G34">
+        <v>32</v>
+      </c>
+      <c r="H34">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="I34">
+        <v>0.99</v>
+      </c>
+      <c r="J34">
+        <v>0.99995999999999996</v>
+      </c>
+      <c r="K34">
+        <v>300000</v>
+      </c>
+      <c r="L34">
+        <v>256</v>
+      </c>
+      <c r="M34">
+        <v>20</v>
+      </c>
+      <c r="N34">
+        <v>80000</v>
+      </c>
+      <c r="O34" t="s">
+        <v>19</v>
+      </c>
+      <c r="P34">
+        <v>2.5000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>9</v>
+      </c>
+      <c r="B35">
+        <v>-39</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>-62.4</v>
+      </c>
+      <c r="E35">
+        <v>98.7</v>
+      </c>
+      <c r="F35">
+        <v>128</v>
+      </c>
+      <c r="G35">
+        <v>8</v>
+      </c>
+      <c r="H35">
+        <v>0.99939999999999996</v>
+      </c>
+      <c r="I35">
+        <v>1.05</v>
+      </c>
+      <c r="J35">
+        <v>0.99997999999999998</v>
+      </c>
+      <c r="K35">
+        <v>150000</v>
+      </c>
+      <c r="L35">
+        <v>128</v>
+      </c>
+      <c r="M35">
+        <v>30</v>
+      </c>
+      <c r="N35">
+        <v>50000</v>
+      </c>
+      <c r="O35" t="s">
+        <v>19</v>
+      </c>
+      <c r="P35">
+        <v>2.5000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="F36">
+        <f t="shared" ref="F36:I36" si="0">CORREL($B2:$B35, F2:F35)</f>
+        <v>2.9891030143337795E-2</v>
+      </c>
+      <c r="G36">
         <f t="shared" si="0"/>
-        <v>0.28310192602773837</v>
-      </c>
-      <c r="I19">
+        <v>0.18334614060689808</v>
+      </c>
+      <c r="H36">
         <f t="shared" si="0"/>
-        <v>5.9834028192849782E-2</v>
-      </c>
-      <c r="J19">
+        <v>0.19585945838950675</v>
+      </c>
+      <c r="I36">
         <f t="shared" si="0"/>
-        <v>-2.8693905010390777E-2</v>
-      </c>
-      <c r="K19">
-        <f t="shared" si="0"/>
-        <v>0.12648899015934584</v>
-      </c>
-      <c r="L19">
-        <f t="shared" si="0"/>
-        <v>-1.8122297565009094E-2</v>
-      </c>
-      <c r="M19">
-        <f t="shared" si="0"/>
-        <v>-0.13125841113226475</v>
-      </c>
-      <c r="N19">
-        <f t="shared" si="0"/>
-        <v>-3.8961568710579014E-2</v>
-      </c>
-      <c r="P19">
-        <f t="shared" si="0"/>
-        <v>0.40882213067694023</v>
+        <v>0.12270283976020598</v>
+      </c>
+      <c r="J36">
+        <f>CORREL($B2:$B35, J2:J35)</f>
+        <v>1.0543200741513546E-2</v>
+      </c>
+      <c r="K36">
+        <f t="shared" ref="K36" si="1">CORREL($B2:$B35, K2:K35)</f>
+        <v>-0.1465625806735292</v>
+      </c>
+      <c r="L36">
+        <f t="shared" ref="L36" si="2">CORREL($B2:$B35, L2:L35)</f>
+        <v>-1.9162466864167945E-2</v>
+      </c>
+      <c r="M36">
+        <f t="shared" ref="M36" si="3">CORREL($B2:$B35, M2:M35)</f>
+        <v>8.6932488222238261E-3</v>
+      </c>
+      <c r="N36">
+        <f t="shared" ref="N36" si="4">CORREL($B2:$B35, N2:N35)</f>
+        <v>0.16641722693224967</v>
+      </c>
+      <c r="P36">
+        <f>CORREL($B2:$B35, P2:P35)</f>
+        <v>0.26031413152467126</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P37">
+        <f>CORREL($B18:$B29, P18:P29)</f>
+        <v>0.42474715751794812</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H2:H17">
-    <cfRule type="colorScale" priority="6">
+  <conditionalFormatting sqref="H2:H35">
+    <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1873,7 +2782,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="10">
+    <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1884,8 +2793,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I17">
-    <cfRule type="colorScale" priority="7">
+  <conditionalFormatting sqref="I2:I35">
+    <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1893,7 +2802,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="9">
+    <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1904,7 +2813,37 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J17">
+  <conditionalFormatting sqref="J2:J35">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K35">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:L35">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:M35">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -1914,7 +2853,27 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K17">
+  <conditionalFormatting sqref="N2:N35">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P2:P35">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F35">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -1924,7 +2883,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L17">
+  <conditionalFormatting sqref="G2:G35">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -1934,39 +2893,46 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M17">
+  <conditionalFormatting sqref="B2:B35">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N17">
+  <conditionalFormatting sqref="F36:P36">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P2:P17">
+  <conditionalFormatting sqref="P37">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>